--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Webview_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Webview_JS.xlsx
@@ -1006,20 +1006,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(webview_test_link);
-validate2;
-SelectTestToRun(VT301_0027_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -1195,6 +1181,21 @@
 wait(4);
 SwitchApp(WEBVIEW_1);
 validate7;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(webview_test_link);
+validate2;
+SelectTestToRun(VT301_0027_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+wait(10);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2096,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2123,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2204,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2339,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
